--- a/outputs/o__Erysipelotrichales_train.xlsx
+++ b/outputs/o__Erysipelotrichales_train.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BB224EB-B76E-5D47-8F6B-2CBB3CA04B58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="f__Erysipelotrichaceae-b" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="f__Erysipelatoclostridiaceae-b" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="f__Erysipelotrichaceae-b" sheetId="1" r:id="rId1"/>
+    <sheet name="f__Erysipelatoclostridiaceae-b" sheetId="2" r:id="rId2"/>
+    <sheet name="f__Erysipelotrichaceae-b-p" sheetId="3" r:id="rId3"/>
+    <sheet name="f__Erysipelatoclostridiac-b-p" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
   <si>
     <t>f__Erysipelatoclostridiaceae-f__Erysipelotrichaceae</t>
   </si>
@@ -91,34 +99,48 @@
   </si>
   <si>
     <t>GB_GCA_900317015.1_0</t>
+  </si>
+  <si>
+    <t>MAG</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -127,26 +149,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -434,20 +491,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,191 +506,185 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.9538037926674082</v>
+      <c r="B2">
+        <v>0.95380379266740822</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.985731626063588</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
-        <v>1.215500006279106</v>
+      <c r="B4">
+        <v>1.2155000062791059</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
-        <v>1.212540066720995</v>
+      <c r="B5">
+        <v>1.2125400667209949</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1.105339579871639</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.6435923462884696</v>
+      <c r="B7">
+        <v>0.64359234628846962</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.179848529125632</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.116689605478471</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.5261484858590741</v>
+      <c r="B10">
+        <v>0.52614848585907414</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="n">
-        <v>-0.2692515293978865</v>
+      <c r="B11">
+        <v>-0.26925152939788649</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="n">
-        <v>1.010670510982426</v>
+      <c r="B12">
+        <v>1.0106705109824261</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.769198407381794</v>
+      <c r="B13">
+        <v>0.76919840738179401</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1.367601067673673</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1.065309653365887</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="n">
-        <v>0.6008037731309356</v>
+      <c r="B16">
+        <v>0.60080377313093558</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,66 +692,66 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="n">
-        <v>-1.049511508262419</v>
+      <c r="B2">
+        <v>-1.0495115082624189</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="n">
-        <v>-0.5878647276069061</v>
+      <c r="B3">
+        <v>-0.58786472760690611</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.07464119837193377</v>
+      <c r="B4">
+        <v>7.4641198371933767E-2</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="n">
-        <v>-0.6072542082119692</v>
+      <c r="B5">
+        <v>-0.60725420821196918</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.7909669410067234</v>
+      <c r="B6">
+        <v>0.79096694100672338</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.682230167730279</v>
       </c>
       <c r="C7" t="s">
@@ -714,6 +759,423 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.27812049232563141</v>
+      </c>
+      <c r="C2">
+        <v>0.72187950767436859</v>
+      </c>
+      <c r="D2">
+        <v>0.72187950767436859</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.27175598534291528</v>
+      </c>
+      <c r="C3">
+        <v>0.72824401465708466</v>
+      </c>
+      <c r="D3">
+        <v>0.72824401465708466</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.22872933525929581</v>
+      </c>
+      <c r="C4">
+        <v>0.77127066474070416</v>
+      </c>
+      <c r="D4">
+        <v>0.77127066474070416</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.22925192401526839</v>
+      </c>
+      <c r="C5">
+        <v>0.77074807598473161</v>
+      </c>
+      <c r="D5">
+        <v>0.77074807598473161</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.2487407554745672</v>
+      </c>
+      <c r="C6">
+        <v>0.7512592445254328</v>
+      </c>
+      <c r="D6">
+        <v>0.7512592445254328</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.34443493667198272</v>
+      </c>
+      <c r="C7">
+        <v>0.65556506332801734</v>
+      </c>
+      <c r="D7">
+        <v>0.65556506332801734</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.23507943219553129</v>
+      </c>
+      <c r="C8">
+        <v>0.76492056780446871</v>
+      </c>
+      <c r="D8">
+        <v>0.76492056780446871</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.24662584390625769</v>
+      </c>
+      <c r="C9">
+        <v>0.75337415609374225</v>
+      </c>
+      <c r="D9">
+        <v>0.75337415609374225</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.3714156396600844</v>
+      </c>
+      <c r="C10">
+        <v>0.6285843603399156</v>
+      </c>
+      <c r="D10">
+        <v>0.6285843603399156</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.56690914730463615</v>
+      </c>
+      <c r="C11">
+        <v>0.4330908526953639</v>
+      </c>
+      <c r="D11">
+        <v>0.56690914730463615</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.26684865118620038</v>
+      </c>
+      <c r="C12">
+        <v>0.73315134881379962</v>
+      </c>
+      <c r="D12">
+        <v>0.73315134881379962</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.31665253234748481</v>
+      </c>
+      <c r="C13">
+        <v>0.68334746765251519</v>
+      </c>
+      <c r="D13">
+        <v>0.68334746765251519</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0.20300770655002781</v>
+      </c>
+      <c r="C14">
+        <v>0.79699229344997224</v>
+      </c>
+      <c r="D14">
+        <v>0.79699229344997224</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0.25629608125718939</v>
+      </c>
+      <c r="C15">
+        <v>0.74370391874281061</v>
+      </c>
+      <c r="D15">
+        <v>0.74370391874281061</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.35415982468524781</v>
+      </c>
+      <c r="C16">
+        <v>0.64584017531475224</v>
+      </c>
+      <c r="D16">
+        <v>0.64584017531475224</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0.74068108432814062</v>
+      </c>
+      <c r="C2">
+        <v>0.25931891567185938</v>
+      </c>
+      <c r="D2">
+        <v>0.74068108432814062</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0.64287506521703941</v>
+      </c>
+      <c r="C3">
+        <v>0.35712493478296059</v>
+      </c>
+      <c r="D3">
+        <v>0.64287506521703941</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0.48134835910682228</v>
+      </c>
+      <c r="C4">
+        <v>0.51865164089317772</v>
+      </c>
+      <c r="D4">
+        <v>0.51865164089317772</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0.6473141957102263</v>
+      </c>
+      <c r="C5">
+        <v>0.3526858042897737</v>
+      </c>
+      <c r="D5">
+        <v>0.6473141957102263</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0.31196108615064339</v>
+      </c>
+      <c r="C6">
+        <v>0.68803891384935656</v>
+      </c>
+      <c r="D6">
+        <v>0.68803891384935656</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0.335763734165762</v>
+      </c>
+      <c r="C7">
+        <v>0.664236265834238</v>
+      </c>
+      <c r="D7">
+        <v>0.664236265834238</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/o__Erysipelotrichales_train.xlsx
+++ b/outputs/o__Erysipelotrichales_train.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BB224EB-B76E-5D47-8F6B-2CBB3CA04B58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5A865E-24A3-6A41-92EC-6F3D3E657C86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f__Erysipelotrichaceae-b" sheetId="1" r:id="rId1"/>
     <sheet name="f__Erysipelatoclostridiaceae-b" sheetId="2" r:id="rId2"/>
     <sheet name="f__Erysipelotrichaceae-b-p" sheetId="3" r:id="rId3"/>
-    <sheet name="f__Erysipelatoclostridiac-b-p" sheetId="4" r:id="rId4"/>
+    <sheet name="f_Erysipelatoclostridiaceae-b-p" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
   <si>
     <t>f__Erysipelatoclostridiaceae-f__Erysipelotrichaceae</t>
   </si>
@@ -105,6 +104,12 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>f__Erysipelatoclostridiac</t>
+  </si>
+  <si>
+    <t>f_Erysipelatoclostridiaceae</t>
   </si>
 </sst>
 </file>
@@ -680,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -767,7 +772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -955,7 +962,7 @@
         <v>0.56690914730463615</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1052,7 +1059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1087,7 +1096,7 @@
         <v>0.74068108432814062</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1104,7 +1113,7 @@
         <v>0.64287506521703941</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1138,7 +1147,7 @@
         <v>0.6473141957102263</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
